--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tac1-Tacr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tac1-Tacr3.xlsx
@@ -531,7 +531,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6139516666666667</v>
+        <v>0.6139516666666666</v>
       </c>
       <c r="H2">
         <v>1.841855</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4155568692933334</v>
+        <v>0.4155568692933333</v>
       </c>
       <c r="R2">
         <v>3.74001182364</v>
